--- a/resource/搜索词.xlsx
+++ b/resource/搜索词.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.5" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
